--- a/data/kospi200return_data.xlsx
+++ b/data/kospi200return_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkswo\Desktop\캡스톤\Capstone-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC04AA0-4DF2-4F3D-9E27-965675ED2B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C2A5BC-5D0E-4A79-9894-65514E947A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8A78683-1BFD-4F69-9079-8089DE8FECC2}"/>
   </bookViews>
@@ -36,7 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>KOSPI200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,12 +76,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABC3D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87AAC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -110,20 +131,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBBC8DE-581E-4101-8611-408C8A6F361C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B274"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -525,2186 +552,2194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>36525</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B2" s="4">
         <v>11.18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>36556</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="4">
         <v>-8.41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>36585</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="4">
         <v>-13.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>36616</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
+        <v>36616</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
         <v>36646</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="6">
         <v>-17.96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>36677</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="4">
         <v>1.68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>36707</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="4">
         <v>12.61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>36738</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="4">
         <v>-14.44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>36769</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-3.14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
+        <v>36769</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-3.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
         <v>36799</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="6">
         <v>-17.36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>36830</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="4">
         <v>-16.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>36860</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="4">
         <v>-0.81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>36891</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="4">
         <v>-4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>36922</v>
-      </c>
-      <c r="B14" s="2">
-        <v>23.09</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
+        <v>36922</v>
+      </c>
+      <c r="B15" s="4">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
         <v>36950</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="6">
         <v>-7.49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>36981</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="4">
         <v>-9.68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>37011</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="4">
         <v>11.19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>37042</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="4">
         <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>37072</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-7.17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
+        <v>37072</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-7.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
         <v>37103</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="6">
         <v>-8.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
         <v>37134</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="4">
         <v>0.66</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>37164</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="4">
         <v>-17.28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
         <v>37195</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="4">
         <v>12.78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>37225</v>
-      </c>
-      <c r="B24" s="2">
-        <v>20.45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
+        <v>37225</v>
+      </c>
+      <c r="B25" s="4">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
         <v>37256</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="6">
         <v>10.41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
         <v>37287</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B27" s="4">
         <v>6.92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
         <v>37315</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="4">
         <v>10.36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>37346</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B29" s="4">
         <v>8.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>37376</v>
-      </c>
-      <c r="B29" s="2">
-        <v>-4.87</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
+        <v>37376</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-4.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
         <v>37407</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="6">
         <v>-5.25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
         <v>37437</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="4">
         <v>-12.73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
         <v>37468</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B33" s="4">
         <v>-3.77</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
         <v>37499</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="4">
         <v>1.76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
-        <v>37529</v>
-      </c>
-      <c r="B34" s="2">
-        <v>-12.08</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
+        <v>37529</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-12.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
         <v>37560</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="6">
         <v>2.13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
         <v>37590</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="4">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
         <v>37621</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B38" s="4">
         <v>-13.23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
         <v>37652</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B39" s="4">
         <v>-5.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>37680</v>
-      </c>
-      <c r="B39" s="2">
-        <v>-3.15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
+        <v>37680</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-3.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="5">
         <v>37711</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="6">
         <v>-6.59</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
         <v>37741</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B42" s="4">
         <v>12.34</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
         <v>37772</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B43" s="4">
         <v>5.34</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
         <v>37802</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="4">
         <v>6.13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="1">
-        <v>37833</v>
-      </c>
-      <c r="B44" s="2">
-        <v>7.08</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
+        <v>37833</v>
+      </c>
+      <c r="B45" s="4">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="5">
         <v>37864</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="6">
         <v>5.24</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
         <v>37894</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="4">
         <v>-8.24</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="3">
         <v>37925</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="4">
         <v>13.28</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="3">
         <v>37955</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="4">
         <v>3.06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
-        <v>37986</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
+        <v>37986</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="5">
         <v>38017</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="6">
         <v>5.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="3">
         <v>38046</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B52" s="4">
         <v>2.57</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
         <v>38077</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B53" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="3">
         <v>38107</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="4">
         <v>-3.09</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
-        <v>38138</v>
-      </c>
-      <c r="B54" s="2">
-        <v>-7.35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
+        <v>38138</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-7.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="5">
         <v>38168</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="6">
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="3">
         <v>38199</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="4">
         <v>-6.46</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="3">
         <v>38230</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="3">
         <v>38260</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="4">
         <v>4.67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
-        <v>38291</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0.61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
+        <v>38291</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="5">
         <v>38321</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="6">
         <v>5.01</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="3">
         <v>38352</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="4">
         <v>1.63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="3">
         <v>38383</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="4">
         <v>5.04</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="3">
         <v>38411</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="4">
         <v>8.09</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="1">
-        <v>38442</v>
-      </c>
-      <c r="B64" s="2">
-        <v>-4.6399999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
+        <v>38442</v>
+      </c>
+      <c r="B65" s="4">
+        <v>-4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="5">
         <v>38472</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B66" s="6">
         <v>-5.28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="3">
         <v>38503</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="4">
         <v>6.17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="3">
         <v>38533</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="4">
         <v>3.68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="3">
         <v>38564</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="4">
         <v>11.61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="1">
-        <v>38595</v>
-      </c>
-      <c r="B69" s="2">
-        <v>-2.25</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
+        <v>38595</v>
+      </c>
+      <c r="B70" s="4">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="5">
         <v>38625</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B71" s="6">
         <v>12.46</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="3">
         <v>38656</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B72" s="4">
         <v>-5.53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="3">
         <v>38686</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="4">
         <v>11.5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="3">
         <v>38717</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="4">
         <v>8.39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="1">
-        <v>38748</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1.81</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
+        <v>38748</v>
+      </c>
+      <c r="B75" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="5">
         <v>38776</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B76" s="6">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="3">
         <v>38807</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="4">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="3">
         <v>38837</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="4">
         <v>6.56</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="3">
         <v>38868</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="4">
         <v>-7.11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="1">
-        <v>38898</v>
-      </c>
-      <c r="B79" s="2">
-        <v>-2.08</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
+        <v>38898</v>
+      </c>
+      <c r="B80" s="4">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="5">
         <v>38929</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B81" s="6">
         <v>0.63</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="3">
         <v>38960</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="4">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="3">
         <v>38990</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="4">
         <v>1.87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="3">
         <v>39021</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B84" s="4">
         <v>-0.68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="1">
-        <v>39051</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4.59</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
+        <v>39051</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="5">
         <v>39082</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B86" s="6">
         <v>1.63</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="3">
         <v>39113</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B87" s="4">
         <v>-5.07</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="3">
         <v>39141</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B88" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="3">
         <v>39172</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B89" s="4">
         <v>2.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1">
-        <v>39202</v>
-      </c>
-      <c r="B89" s="2">
-        <v>5.84</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
+        <v>39202</v>
+      </c>
+      <c r="B90" s="4">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="5">
         <v>39233</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B91" s="6">
         <v>9.02</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="3">
         <v>39263</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B92" s="4">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="3">
         <v>39294</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B93" s="4">
         <v>10.4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="3">
         <v>39325</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B94" s="4">
         <v>-2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="1">
-        <v>39355</v>
-      </c>
-      <c r="B94" s="2">
-        <v>6.38</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
+        <v>39355</v>
+      </c>
+      <c r="B95" s="4">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="5">
         <v>39386</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B96" s="6">
         <v>5.35</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="1">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
         <v>39416</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B97" s="4">
         <v>-7.11</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="3">
         <v>39447</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B98" s="4">
         <v>3.61</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="1">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="3">
         <v>39478</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B99" s="4">
         <v>-13.88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="1">
-        <v>39507</v>
-      </c>
-      <c r="B99" s="2">
-        <v>4.37</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
+        <v>39507</v>
+      </c>
+      <c r="B100" s="4">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="5">
         <v>39538</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B101" s="6">
         <v>0.37</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="3">
         <v>39568</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B102" s="4">
         <v>7.97</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="1">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="3">
         <v>39599</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B103" s="4">
         <v>1.05</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="1">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="3">
         <v>39629</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B104" s="4">
         <v>-10.08</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="1">
-        <v>39660</v>
-      </c>
-      <c r="B104" s="2">
-        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
+        <v>39660</v>
+      </c>
+      <c r="B105" s="4">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="5">
         <v>39691</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B106" s="6">
         <v>-5.47</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="1">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="3">
         <v>39721</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B107" s="4">
         <v>-1.24</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="3">
         <v>39752</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B108" s="4">
         <v>-20.96</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="1">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="3">
         <v>39782</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B109" s="4">
         <v>6.22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B109" s="2">
-        <v>4.05</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
+        <v>39813</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="5">
         <v>39844</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B111" s="6">
         <v>3.4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="1">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="3">
         <v>39872</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B112" s="4">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="3">
         <v>39903</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B113" s="4">
         <v>13.72</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="1">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="3">
         <v>39933</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B114" s="4">
         <v>12.09</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="1">
-        <v>39964</v>
-      </c>
-      <c r="B114" s="2">
-        <v>3.85</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
+        <v>39964</v>
+      </c>
+      <c r="B115" s="4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="5">
         <v>39994</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B116" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="1">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="3">
         <v>40025</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B117" s="4">
         <v>13.39</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="1">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="3">
         <v>40056</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B118" s="4">
         <v>2.21</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="1">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="3">
         <v>40086</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B119" s="4">
         <v>5.93</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="1">
-        <v>40117</v>
-      </c>
-      <c r="B119" s="2">
-        <v>-5.89</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
+        <v>40117</v>
+      </c>
+      <c r="B120" s="4">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="5">
         <v>40147</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B121" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="1">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="3">
         <v>40178</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B122" s="4">
         <v>8.36</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="1">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="3">
         <v>40209</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B123" s="4">
         <v>-4.54</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="1">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="3">
         <v>40237</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B124" s="4">
         <v>-3.04</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="1">
-        <v>40268</v>
-      </c>
-      <c r="B124" s="2">
-        <v>6.34</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
+        <v>40268</v>
+      </c>
+      <c r="B125" s="4">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="5">
         <v>40298</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B126" s="6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="1">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="3">
         <v>40329</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B127" s="4">
         <v>-5.97</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="1">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="3">
         <v>40359</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B128" s="4">
         <v>3.04</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="1">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="3">
         <v>40390</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B129" s="4">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="1">
-        <v>40421</v>
-      </c>
-      <c r="B129" s="2">
-        <v>-1.06</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
+        <v>40421</v>
+      </c>
+      <c r="B130" s="4">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="5">
         <v>40451</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B131" s="6">
         <v>7.12</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" s="1">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="3">
         <v>40482</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B132" s="4">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" s="1">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="3">
         <v>40512</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B133" s="4">
         <v>2.74</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="1">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="3">
         <v>40543</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B134" s="4">
         <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" s="1">
-        <v>40574</v>
-      </c>
-      <c r="B134" s="2">
-        <v>0.71</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
+        <v>40574</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="5">
         <v>40602</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B136" s="6">
         <v>-6.14</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="1">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="3">
         <v>40633</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B137" s="4">
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="1">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="3">
         <v>40663</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B138" s="4">
         <v>5.9</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="1">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="3">
         <v>40694</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B139" s="4">
         <v>-2.63</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" s="1">
-        <v>40724</v>
-      </c>
-      <c r="B139" s="2">
-        <v>-2.68</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
+        <v>40724</v>
+      </c>
+      <c r="B140" s="4">
+        <v>-2.68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="5">
         <v>40755</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B141" s="6">
         <v>0.91</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" s="1">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="3">
         <v>40786</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B142" s="4">
         <v>-12.61</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" s="1">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="3">
         <v>40816</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B143" s="4">
         <v>-4.8499999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="1">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="3">
         <v>40847</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B144" s="4">
         <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" s="1">
-        <v>40877</v>
-      </c>
-      <c r="B144" s="2">
-        <v>-3.48</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
+        <v>40877</v>
+      </c>
+      <c r="B145" s="4">
+        <v>-3.48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="5">
         <v>40908</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B146" s="6">
         <v>-1.82</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="1">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="3">
         <v>40939</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B147" s="4">
         <v>7.9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="1">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="3">
         <v>40968</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B148" s="4">
         <v>3.98</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="1">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="3">
         <v>40999</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B149" s="4">
         <v>-0.21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="1">
-        <v>41029</v>
-      </c>
-      <c r="B149" s="2">
-        <v>-0.84</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
+        <v>41029</v>
+      </c>
+      <c r="B150" s="4">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="5">
         <v>41060</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B151" s="6">
         <v>-7.68</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="1">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="3">
         <v>41090</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B152" s="4">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="1">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="3">
         <v>41121</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B153" s="4">
         <v>2.12</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="1">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="3">
         <v>41152</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B154" s="4">
         <v>0.19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" s="1">
-        <v>41182</v>
-      </c>
-      <c r="B154" s="2">
-        <v>3.93</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
+        <v>41182</v>
+      </c>
+      <c r="B155" s="4">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="5">
         <v>41213</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B156" s="6">
         <v>-4.6900000000000004</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="1">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="3">
         <v>41243</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B157" s="4">
         <v>1.63</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" s="1">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="3">
         <v>41274</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B158" s="4">
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" s="1">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="3">
         <v>41305</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B159" s="4">
         <v>-2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159" s="1">
-        <v>41333</v>
-      </c>
-      <c r="B159" s="2">
-        <v>3.85</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
+        <v>41333</v>
+      </c>
+      <c r="B160" s="4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="5">
         <v>41364</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B161" s="6">
         <v>-1.72</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161" s="1">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="3">
         <v>41394</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B162" s="4">
         <v>-2.91</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162" s="1">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="3">
         <v>41425</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B163" s="4">
         <v>2.25</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163" s="1">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="3">
         <v>41455</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B164" s="4">
         <v>-6.31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164" s="1">
-        <v>41486</v>
-      </c>
-      <c r="B164" s="2">
-        <v>2.36</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
+        <v>41486</v>
+      </c>
+      <c r="B165" s="4">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="5">
         <v>41517</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B166" s="6">
         <v>1.19</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166" s="1">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="3">
         <v>41547</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B167" s="4">
         <v>3.64</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167" s="1">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="3">
         <v>41578</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B168" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" s="1">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="3">
         <v>41608</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B169" s="4">
         <v>-0.26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" s="1">
-        <v>41639</v>
-      </c>
-      <c r="B169" s="2">
-        <v>-1.98</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
+        <v>41639</v>
+      </c>
+      <c r="B170" s="4">
+        <v>-1.98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="5">
         <v>41670</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B171" s="6">
         <v>-3.96</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" s="1">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="3">
         <v>41698</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B172" s="4">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" s="1">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="3">
         <v>41729</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B173" s="4">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" s="1">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="3">
         <v>41759</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B174" s="4">
         <v>-1.08</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" s="1">
-        <v>41790</v>
-      </c>
-      <c r="B174" s="2">
-        <v>1.81</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
+        <v>41790</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="5">
         <v>41820</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B176" s="6">
         <v>0.24</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="1">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="3">
         <v>41851</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B177" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="1">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="3">
         <v>41882</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B178" s="4">
         <v>-0.97</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="1">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="3">
         <v>41912</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B179" s="4">
         <v>-3.26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="1">
-        <v>41943</v>
-      </c>
-      <c r="B179" s="2">
-        <v>-2.46</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
+        <v>41943</v>
+      </c>
+      <c r="B180" s="4">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="5">
         <v>41973</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B181" s="6">
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="1">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="3">
         <v>42004</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B182" s="4">
         <v>-3.8</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="1">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="3">
         <v>42035</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B183" s="4">
         <v>2.39</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="1">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="3">
         <v>42063</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B184" s="4">
         <v>-0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="1">
-        <v>42094</v>
-      </c>
-      <c r="B184" s="2">
-        <v>2.31</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
+        <v>42094</v>
+      </c>
+      <c r="B185" s="4">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="5">
         <v>42124</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B186" s="6">
         <v>3.55</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="1">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="3">
         <v>42155</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B187" s="4">
         <v>-2.85</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="1">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="3">
         <v>42185</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B188" s="4">
         <v>-3.12</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="1">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="3">
         <v>42216</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B189" s="4">
         <v>-3.16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="1">
-        <v>42247</v>
-      </c>
-      <c r="B189" s="2">
-        <v>-4.71</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B190" s="4">
+        <v>-4.71</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="5">
         <v>42277</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B191" s="6">
         <v>1.68</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="1">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="3">
         <v>42308</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B192" s="4">
         <v>5.37</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="1">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="3">
         <v>42338</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B193" s="4">
         <v>-2.0699999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="1">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="3">
         <v>42369</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B194" s="4">
         <v>-1.58</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="1">
-        <v>42400</v>
-      </c>
-      <c r="B194" s="2">
-        <v>-3.78</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
+        <v>42400</v>
+      </c>
+      <c r="B195" s="4">
+        <v>-3.78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="5">
         <v>42429</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B196" s="6">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" s="1">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="3">
         <v>42460</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B197" s="4">
         <v>4.79</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" s="1">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="3">
         <v>42490</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B198" s="4">
         <v>-0.13</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" s="1">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="3">
         <v>42521</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B199" s="4">
         <v>-0.64</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" s="1">
-        <v>42551</v>
-      </c>
-      <c r="B199" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
+        <v>42551</v>
+      </c>
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="5">
         <v>42582</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B201" s="6">
         <v>3.78</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" s="1">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="3">
         <v>42613</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B202" s="4">
         <v>2.14</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="1">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="3">
         <v>42643</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B203" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" s="1">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="3">
         <v>42674</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B204" s="4">
         <v>-0.61</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" s="1">
-        <v>42704</v>
-      </c>
-      <c r="B204" s="2">
-        <v>-0.88</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B205" s="4">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="5">
         <v>42735</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B206" s="6">
         <v>2.81</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206" s="1">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="3">
         <v>42766</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B207" s="4">
         <v>3.11</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A207" s="1">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="3">
         <v>42794</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B208" s="4">
         <v>-0.16</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A208" s="1">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="3">
         <v>42825</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B209" s="4">
         <v>3.92</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A209" s="1">
-        <v>42855</v>
-      </c>
-      <c r="B209" s="2">
-        <v>2.12</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B210" s="4">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="5">
         <v>42886</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B211" s="6">
         <v>6.08</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A211" s="1">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="3">
         <v>42916</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B212" s="4">
         <v>2.35</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212" s="1">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="3">
         <v>42947</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B213" s="4">
         <v>0.91</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A213" s="1">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="3">
         <v>42978</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B214" s="4">
         <v>-2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A214" s="1">
-        <v>43008</v>
-      </c>
-      <c r="B214" s="2">
-        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B215" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="5">
         <v>43039</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B216" s="6">
         <v>5.47</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A216" s="1">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="3">
         <v>43069</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B217" s="4">
         <v>-1.55</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A217" s="1">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="3">
         <v>43100</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B218" s="4">
         <v>-1.89</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A218" s="1">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="3">
         <v>43131</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B219" s="4">
         <v>2.66</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A219" s="1">
-        <v>43159</v>
-      </c>
-      <c r="B219" s="2">
-        <v>-6.71</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B220" s="4">
+        <v>-6.71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="5">
         <v>43190</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B221" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A221" s="1">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="3">
         <v>43220</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B222" s="4">
         <v>2.84</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A222" s="1">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" s="3">
         <v>43251</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B223" s="4">
         <v>-3.91</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A223" s="1">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" s="3">
         <v>43281</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B224" s="4">
         <v>-5.23</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A224" s="1">
-        <v>43312</v>
-      </c>
-      <c r="B224" s="2">
-        <v>-0.74</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B225" s="4">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" s="5">
         <v>43343</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B226" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A226" s="1">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" s="3">
         <v>43373</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B227" s="4">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A227" s="1">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" s="3">
         <v>43404</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B228" s="4">
         <v>-12.15</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A228" s="1">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" s="3">
         <v>43434</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B229" s="4">
         <v>3.38</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A229" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B229" s="2">
-        <v>-4.1900000000000004</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
+        <v>43465</v>
+      </c>
+      <c r="B230" s="4">
+        <v>-4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" s="5">
         <v>43496</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B231" s="6">
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A231" s="1">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" s="3">
         <v>43524</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B232" s="4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A232" s="1">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" s="3">
         <v>43555</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B233" s="4">
         <v>-2.58</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A233" s="1">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" s="3">
         <v>43585</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B234" s="4">
         <v>3.05</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A234" s="1">
-        <v>43616</v>
-      </c>
-      <c r="B234" s="2">
-        <v>-7.38</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B235" s="4">
+        <v>-7.38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" s="5">
         <v>43646</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B236" s="6">
         <v>4.84</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A236" s="1">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" s="3">
         <v>43677</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B237" s="4">
         <v>-4.0199999999999996</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A237" s="1">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" s="3">
         <v>43708</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B238" s="4">
         <v>-3.7</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A238" s="1">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" s="3">
         <v>43738</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B239" s="4">
         <v>5.62</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A239" s="1">
-        <v>43769</v>
-      </c>
-      <c r="B239" s="2">
-        <v>0.83</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B240" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" s="5">
         <v>43799</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B241" s="6">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A241" s="1">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" s="3">
         <v>43830</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B242" s="4">
         <v>6.14</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A242" s="1">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" s="3">
         <v>43861</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B243" s="4">
         <v>-3.15</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A243" s="1">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" s="3">
         <v>43890</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B244" s="4">
         <v>-8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A244" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B244" s="2">
-        <v>-11.64</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
+        <v>43921</v>
+      </c>
+      <c r="B245" s="4">
+        <v>-11.64</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" s="5">
         <v>43951</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B246" s="6">
         <v>10.42</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A246" s="1">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" s="3">
         <v>43982</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B247" s="4">
         <v>3.94</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A247" s="1">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" s="3">
         <v>44012</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B248" s="4">
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A248" s="1">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" s="3">
         <v>44043</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B249" s="4">
         <v>6.87</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A249" s="1">
-        <v>44074</v>
-      </c>
-      <c r="B249" s="2">
-        <v>2.61</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B250" s="4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" s="5">
         <v>44104</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B251" s="6">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A251" s="1">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" s="3">
         <v>44135</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B252" s="4">
         <v>-2.5299999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A252" s="1">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" s="3">
         <v>44165</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B253" s="4">
         <v>14.74</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A253" s="1">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" s="3">
         <v>44196</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B254" s="4">
         <v>12.5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A254" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B254" s="2">
-        <v>6.11</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
+        <v>44227</v>
+      </c>
+      <c r="B255" s="4">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" s="5">
         <v>44255</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B256" s="6">
         <v>-3.94</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A256" s="1">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" s="3">
         <v>44286</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B257" s="4">
         <v>1.25</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A257" s="1">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" s="3">
         <v>44316</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B258" s="4">
         <v>1.38</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A258" s="1">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" s="3">
         <v>44347</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B259" s="4">
         <v>1.31</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A259" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B259" s="2">
-        <v>3.03</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
+        <v>44377</v>
+      </c>
+      <c r="B260" s="4">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" s="5">
         <v>44408</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B261" s="6">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A261" s="1">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" s="3">
         <v>44439</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B262" s="4">
         <v>-0.97</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A262" s="1">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" s="3">
         <v>44469</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B263" s="4">
         <v>-2.48</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A263" s="1">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" s="3">
         <v>44500</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B264" s="4">
         <v>-2.9</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A264" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B264" s="2">
-        <v>-3.92</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B265" s="4">
+        <v>-3.92</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" s="5">
         <v>44561</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B266" s="6">
         <v>5.61</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A266" s="1">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" s="3">
         <v>44592</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B267" s="4">
         <v>-10.77</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A267" s="1">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" s="3">
         <v>44620</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B268" s="4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A268" s="1">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" s="3">
         <v>44651</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B269" s="4">
         <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A269" s="1">
-        <v>44681</v>
-      </c>
-      <c r="B269" s="2">
-        <v>-2.39</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
+        <v>44681</v>
+      </c>
+      <c r="B270" s="4">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" s="5">
         <v>44712</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B271" s="6">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A271" s="1">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" s="3">
         <v>44742</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B272" s="4">
         <v>-12.85</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A272" s="1">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" s="3">
         <v>44773</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B273" s="4">
         <v>3.34</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A273" s="1">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" s="3">
         <v>44799</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B274" s="4">
         <v>1.35</v>
       </c>
     </row>
